--- a/trunk/plan/Materiały budowlane - zestawienia.xlsx
+++ b/trunk/plan/Materiały budowlane - zestawienia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>Bezpieczeństwo</t>
   </si>
@@ -311,6 +311,42 @@
   <si>
     <t>Bloczek</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W/mK]</t>
+    </r>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -319,8 +355,8 @@
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;zł&quot;;[Red]\-#,##0\ &quot;zł&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0\ &quot;zł&quot;;[Red]\-#,##0.0\ &quot;zł&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0\ &quot;zł&quot;;[Red]\-#,##0.0\ &quot;zł&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -663,12 +699,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -684,14 +714,20 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1020,7 +1056,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1038,7 +1074,7 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="20"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1054,7 +1090,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1110,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1098,7 +1134,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" customHeight="1">
-      <c r="A6" s="21"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1151,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="18.75">
-      <c r="A7" s="21"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1137,7 +1173,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="51" customHeight="1">
-      <c r="A8" s="21"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1151,7 +1187,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1170,7 +1206,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="20"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1215,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="18.75">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1203,7 +1239,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="21"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -1217,7 +1253,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="21"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
@@ -1411,14 +1447,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
@@ -1441,15 +1477,19 @@
       <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="39">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:23" ht="15.75" thickBot="1">
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="3" spans="2:23" ht="15.75" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>74</v>
@@ -1457,16 +1497,16 @@
       <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1484,7 +1524,7 @@
         <v>0.247</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G4" s="12">
         <v>0.24</v>
@@ -1492,7 +1532,7 @@
       <c r="H4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="20">
         <f>IF(E4,E4,C4*G4)</f>
         <v>0.247</v>
       </c>
@@ -1502,15 +1542,15 @@
       <c r="L4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="O4" s="34">
+      <c r="M4" s="38"/>
+      <c r="O4" s="32">
         <f>100*100/(23.8*30.8)</f>
         <v>13.641820364509439</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="22">
         <v>6.51</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="33">
         <f>P4*O4</f>
         <v>88.808250572956439</v>
       </c>
@@ -1535,7 +1575,7 @@
       <c r="H5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="20">
         <f>IF(E5,E5,C5*G5)</f>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -1547,28 +1587,28 @@
         <f>G4+G5</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30">
+      <c r="M5" s="38"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28">
         <f>$Q$1/(1/G5)</f>
         <v>35.700000000000003</v>
       </c>
     </row>
     <row r="6" spans="2:23">
-      <c r="M6" s="41"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="M6" s="39"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:23" ht="15.75" thickBot="1">
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="M7" s="39"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="2:23" ht="15.75" thickBot="1">
       <c r="B8" t="s">
@@ -1590,7 +1630,7 @@
       <c r="H8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="20">
         <f t="shared" ref="I8:I9" si="0">IF(E8,E8,C8*G8)</f>
         <v>0.31</v>
       </c>
@@ -1600,15 +1640,15 @@
       <c r="L8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="40"/>
-      <c r="O8" s="25">
+      <c r="M8" s="38"/>
+      <c r="O8" s="23">
         <f>100*100/(23.8*37.5)</f>
         <v>11.204481792717086</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="24">
         <v>6.52</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="25">
         <f>P8*O8</f>
         <v>73.053221288515402</v>
       </c>
@@ -1633,7 +1673,7 @@
       <c r="H9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="20">
         <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -1645,28 +1685,28 @@
         <f>G8+G9</f>
         <v>0.45</v>
       </c>
-      <c r="M9" s="40"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30">
+      <c r="M9" s="38"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28">
         <f>$Q$1/(1/G9)</f>
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:23">
-      <c r="M10" s="41"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
+      <c r="M10" s="39"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="2:23" ht="15.75" thickBot="1">
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
+      <c r="M11" s="39"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="2:23" ht="15.75" thickBot="1">
       <c r="B12" t="s">
@@ -1688,7 +1728,7 @@
       <c r="H12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="20">
         <f t="shared" ref="I12:I13" si="1">IF(E12,E12,C12*G12)</f>
         <v>0.13299999999999998</v>
       </c>
@@ -1698,15 +1738,15 @@
       <c r="L12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="40"/>
-      <c r="O12" s="25">
+      <c r="M12" s="38"/>
+      <c r="O12" s="23">
         <f>100*100/(23.8*24.8)</f>
         <v>16.942260775277852</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="24">
         <v>6.85</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="25">
         <f>P12*O12</f>
         <v>116.05448631065327</v>
       </c>
@@ -1731,7 +1771,7 @@
       <c r="H13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="20">
         <f t="shared" si="1"/>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -1743,19 +1783,19 @@
         <f>G12+G13</f>
         <v>0.45</v>
       </c>
-      <c r="M13" s="40"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="30">
+      <c r="M13" s="38"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="28">
         <f>$Q$1/(1/G13)</f>
         <v>11.9</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="15.75" thickBot="1">
-      <c r="M14" s="41"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
+      <c r="M14" s="39"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="2:23" ht="15.75" thickBot="1">
       <c r="B15" t="s">
@@ -1777,7 +1817,7 @@
       <c r="H15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="20">
         <f>IF(E15,E15,C15*G15)</f>
         <v>0.13250000000000001</v>
       </c>
@@ -1787,22 +1827,22 @@
       <c r="L15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="40"/>
+      <c r="M15" s="38"/>
       <c r="N15" t="s">
         <v>85</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="23">
         <f>100*100/(23.8*30)</f>
         <v>14.005602240896359</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="24">
         <v>8.1199999999999992</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="40">
         <f>P15*O15</f>
         <v>113.72549019607843</v>
       </c>
-      <c r="W15" s="44"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="2:23" ht="15.75" thickBot="1">
       <c r="B16" t="s">
@@ -1824,7 +1864,7 @@
       <c r="H16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="20">
         <f>IF(E16,E16,C16*G16)</f>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -1836,31 +1876,31 @@
         <f>G15+G16</f>
         <v>0.45</v>
       </c>
-      <c r="M16" s="40"/>
+      <c r="M16" s="38"/>
       <c r="N16" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="43">
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="41">
         <f>$Q$1/(1/G16)</f>
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1">
-      <c r="M17" s="41"/>
+      <c r="M17" s="39"/>
       <c r="N17" t="s">
         <v>84</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="43">
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="41">
         <v>12</v>
       </c>
       <c r="R17" t="s">
         <v>86</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="21">
         <f>Q15+Q16+Q17</f>
         <v>159.72549019607843</v>
       </c>
@@ -1869,13 +1909,13 @@
       <c r="B18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="41"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
+      <c r="M18" s="39"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1">
       <c r="B19" t="s">
@@ -1897,7 +1937,7 @@
       <c r="H19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="20">
         <f t="shared" ref="I19:I20" si="2">IF(E19,E19,C19*G19)</f>
         <v>0.16</v>
       </c>
@@ -1907,18 +1947,18 @@
       <c r="L19" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="40"/>
+      <c r="M19" s="38"/>
       <c r="N19" t="s">
         <v>87</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="23">
         <f>100*100/(19.9*59.9)</f>
         <v>8.3891913658442459</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="24">
         <v>6.64</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="25">
         <f>P19*O19</f>
         <v>55.704230669205792</v>
       </c>
@@ -1943,7 +1983,7 @@
       <c r="H20" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="20">
         <f t="shared" si="2"/>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -1955,29 +1995,29 @@
         <f>G19+G20</f>
         <v>0.45</v>
       </c>
-      <c r="M20" s="40"/>
+      <c r="M20" s="38"/>
       <c r="N20" t="s">
         <v>55</v>
       </c>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="30">
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28">
         <f>$Q$1/(1/G20)</f>
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="15.75" thickBot="1">
-      <c r="M21" s="41"/>
+      <c r="M21" s="39"/>
       <c r="N21" t="s">
         <v>84</v>
       </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="43"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="41"/>
       <c r="R21" t="s">
         <v>86</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="21">
         <f>Q19+Q20+Q21</f>
         <v>89.704230669205799</v>
       </c>
@@ -1986,13 +2026,13 @@
       <c r="B22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="M22" s="41"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
+      <c r="M22" s="39"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1">
       <c r="B23" t="s">
@@ -2014,7 +2054,7 @@
       <c r="H23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="20">
         <f t="shared" ref="I23:I24" si="3">IF(E23,E23,C23*G23)</f>
         <v>0.81</v>
       </c>
@@ -2024,18 +2064,18 @@
       <c r="L23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="40"/>
+      <c r="M23" s="38"/>
       <c r="N23" t="s">
         <v>87</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="23">
         <f>100*100/(19.9*33.3)</f>
         <v>15.090467351773889</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="24">
         <v>7.54</v>
       </c>
-      <c r="Q23" s="27">
+      <c r="Q23" s="25">
         <f>P23*O23</f>
         <v>113.78212383237512</v>
       </c>
@@ -2060,7 +2100,7 @@
       <c r="H24" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="20">
         <f t="shared" si="3"/>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -2072,31 +2112,31 @@
         <f>G23+G24</f>
         <v>0.45</v>
       </c>
-      <c r="M24" s="40"/>
+      <c r="M24" s="38"/>
       <c r="N24" t="s">
         <v>55</v>
       </c>
-      <c r="O24" s="28"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="30">
+      <c r="O24" s="26"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28">
         <f>$Q$1/(1/G24)</f>
         <v>45.900000000000006</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="M25" s="41"/>
+      <c r="M25" s="39"/>
       <c r="N25" t="s">
         <v>84</v>
       </c>
-      <c r="O25" s="28"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="43">
+      <c r="O25" s="26"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="41">
         <v>7.5</v>
       </c>
       <c r="R25" t="s">
         <v>86</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="21">
         <f>Q23+Q24+Q25</f>
         <v>167.18212383237511</v>
       </c>
@@ -2105,7 +2145,7 @@
       <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="34">
         <v>170</v>
       </c>
       <c r="F37" t="s">
@@ -2123,7 +2163,7 @@
         <f>1/B38*100</f>
         <v>20</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="35">
         <f t="shared" ref="D38:D41" si="4">$C$37/C38</f>
         <v>8.5</v>
       </c>
@@ -2136,7 +2176,7 @@
         <f t="shared" ref="C39:C42" si="5">1/B39*100</f>
         <v>10</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="35">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
@@ -2155,7 +2195,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="35">
         <f t="shared" si="4"/>
         <v>20.400000000000002</v>
       </c>
@@ -2174,7 +2214,7 @@
         <f t="shared" si="5"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="35">
         <f t="shared" si="4"/>
         <v>25.5</v>
       </c>
@@ -2194,7 +2234,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="35">
         <f>$C$37/C42</f>
         <v>34</v>
       </c>

--- a/trunk/plan/Materiały budowlane - zestawienia.xlsx
+++ b/trunk/plan/Materiały budowlane - zestawienia.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ranking" sheetId="1" r:id="rId1"/>
     <sheet name="Materiały budowlane - wady" sheetId="2" r:id="rId2"/>
     <sheet name="Termoizolacyjność" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
   <si>
     <t>Bezpieczeństwo</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Trwałość wg Glapy</t>
-  </si>
-  <si>
-    <t>Drewno</t>
   </si>
   <si>
     <t>Ceramika</t>
@@ -346,6 +343,72 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Zdrowie</t>
+  </si>
+  <si>
+    <t>Trwałość</t>
+  </si>
+  <si>
+    <t>Zawilgocenia</t>
+  </si>
+  <si>
+    <t>Szczelność</t>
+  </si>
+  <si>
+    <t>Termoizolacyjność</t>
+  </si>
+  <si>
+    <t>Koszt budowy</t>
+  </si>
+  <si>
+    <t>Łatwa obróbka</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Keramzybeton</t>
+  </si>
+  <si>
+    <t>usunięte/nie znaczące</t>
+  </si>
+  <si>
+    <t>Keramzytobeton</t>
+  </si>
+  <si>
+    <t>Termo Optiroc Akustyczny 18</t>
+  </si>
+  <si>
+    <t>1,7kWh</t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beton  </t>
+  </si>
+  <si>
+    <t>4,25kWh</t>
+  </si>
+  <si>
+    <t>porotherm</t>
+  </si>
+  <si>
+    <t>6,7kWh</t>
+  </si>
+  <si>
+    <t>1h20min</t>
+  </si>
+  <si>
+    <t>12kWh</t>
+  </si>
+  <si>
+    <t>2h30min</t>
+  </si>
+  <si>
+    <t>50min</t>
   </si>
 </sst>
 </file>
@@ -670,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -722,6 +785,7 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,41 +1086,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="5" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="F1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1069,12 +1136,12 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="43"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="44"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1085,12 +1152,12 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1">
-      <c r="A4" s="43"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1103,14 +1170,14 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="5" spans="1:8" ht="18.75">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1127,14 +1194,14 @@
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" customHeight="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1218,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="18.75">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1166,14 +1233,14 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="51" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1187,7 +1254,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1202,11 +1269,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="43"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1214,8 +1281,8 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1232,14 +1299,14 @@
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -1253,7 +1320,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
@@ -1282,43 +1349,257 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:11">
+      <c r="F18" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="43" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:B24" si="1">D20*1+E20*2.55+F20*1.85+G20*1.1+H20*2+I20*0.75+J20*0.5+K20*0.25</f>
+        <v>51.35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>56.05</v>
+      </c>
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="D21">
+        <v>4.5</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22">
+        <f>D22*1+E22*2.55+F22*1.85+G22*1.1+H22*2+I22*0.75+J22*0.5+K22*0.25</f>
+        <v>44.7</v>
+      </c>
+      <c r="D22">
+        <v>6.5</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>58.75</v>
+      </c>
+      <c r="D23">
+        <v>8.5</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>71.25</v>
+      </c>
+      <c r="C24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
+      <c r="D24">
+        <v>7.5</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1385,7 +1666,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1395,18 +1676,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -1447,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1472,13 +1753,13 @@
   <sheetData>
     <row r="1" spans="2:23">
       <c r="B1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P1" s="36"/>
       <c r="Q1" s="37">
@@ -1487,60 +1768,60 @@
     </row>
     <row r="2" spans="2:23" ht="15.75" thickBot="1">
       <c r="H2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="15.75" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O3" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="Q3" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="12">
         <v>0.247</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="12">
         <v>0.24</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="20">
         <f>IF(E4,E4,C4*G4)</f>
         <v>0.247</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M4" s="38"/>
       <c r="O4" s="32">
@@ -1557,23 +1838,23 @@
     </row>
     <row r="5" spans="2:23" ht="15.75" thickBot="1">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="14">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="14">
         <v>0.21</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="20">
         <f>IF(E5,E5,C5*G5)</f>
@@ -1587,7 +1868,10 @@
         <f>G4+G5</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="M5" s="38"/>
+      <c r="M5" s="38">
+        <f>K5*L5</f>
+        <v>8.0999999999999989E-2</v>
+      </c>
       <c r="O5" s="26"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="28">
@@ -1603,7 +1887,7 @@
     </row>
     <row r="7" spans="2:23" ht="15.75" thickBot="1">
       <c r="I7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M7" s="39"/>
       <c r="O7" s="21"/>
@@ -1612,33 +1896,33 @@
     </row>
     <row r="8" spans="2:23" ht="15.75" thickBot="1">
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="12">
         <v>0.31</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="12">
         <v>0.25</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" ref="I8:I9" si="0">IF(E8,E8,C8*G8)</f>
         <v>0.31</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="38"/>
       <c r="O8" s="23">
@@ -1655,23 +1939,23 @@
     </row>
     <row r="9" spans="2:23" ht="15.75" thickBot="1">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="14">
         <v>0.2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="0"/>
@@ -1685,7 +1969,10 @@
         <f>G8+G9</f>
         <v>0.45</v>
       </c>
-      <c r="M9" s="38"/>
+      <c r="M9" s="38">
+        <f>K9*L9</f>
+        <v>8.5500000000000007E-2</v>
+      </c>
       <c r="O9" s="26"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="28">
@@ -1701,7 +1988,7 @@
     </row>
     <row r="11" spans="2:23" ht="15.75" thickBot="1">
       <c r="I11" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" s="39"/>
       <c r="O11" s="21"/>
@@ -1710,33 +1997,33 @@
     </row>
     <row r="12" spans="2:23" ht="15.75" thickBot="1">
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="12">
         <v>0.35</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="12">
         <v>0.38</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" ref="I12:I13" si="1">IF(E12,E12,C12*G12)</f>
         <v>0.13299999999999998</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M12" s="38"/>
       <c r="O12" s="23">
@@ -1753,23 +2040,23 @@
     </row>
     <row r="13" spans="2:23" ht="15.75" thickBot="1">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="14">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="1"/>
@@ -1783,7 +2070,10 @@
         <f>G12+G13</f>
         <v>0.45</v>
       </c>
-      <c r="M13" s="38"/>
+      <c r="M13" s="38">
+        <f>K13*L13</f>
+        <v>0.10350000000000001</v>
+      </c>
       <c r="O13" s="26"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="28">
@@ -1799,37 +2089,37 @@
     </row>
     <row r="15" spans="2:23" ht="15.75" thickBot="1">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="12">
         <v>0.53</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="12">
         <v>0.25</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="20">
         <f>IF(E15,E15,C15*G15)</f>
         <v>0.13250000000000001</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="38"/>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O15" s="23">
         <f>100*100/(23.8*30)</f>
@@ -1846,23 +2136,23 @@
     </row>
     <row r="16" spans="2:23" ht="15.75" thickBot="1">
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="14">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="14">
         <v>0.2</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="20">
         <f>IF(E16,E16,C16*G16)</f>
@@ -1876,9 +2166,12 @@
         <f>G15+G16</f>
         <v>0.45</v>
       </c>
-      <c r="M16" s="38"/>
+      <c r="M16" s="38">
+        <f>K16*L16</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
       <c r="N16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
@@ -1887,10 +2180,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:19" ht="15.75" thickBot="1">
+    <row r="17" spans="2:20" ht="15.75" thickBot="1">
       <c r="M17" s="39"/>
       <c r="N17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O17" s="26"/>
       <c r="P17" s="27"/>
@@ -1898,58 +2191,63 @@
         <v>12</v>
       </c>
       <c r="R17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S17" s="21">
         <f>Q15+Q16+Q17</f>
         <v>159.72549019607843</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" ht="15.75" thickBot="1">
+      <c r="T17" s="21">
+        <f>S17+55</f>
+        <v>214.72549019607843</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="15.75" thickBot="1">
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M18" s="39"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="2:19" ht="15.75" thickBot="1">
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="2:20" ht="15.75" thickBot="1">
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="12">
         <v>0.16</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="12">
         <v>0.25</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" ref="I19:I20" si="2">IF(E19,E19,C19*G19)</f>
         <v>0.16</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M19" s="38"/>
       <c r="N19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O19" s="23">
         <f>100*100/(19.9*59.9)</f>
@@ -1962,26 +2260,27 @@
         <f>P19*O19</f>
         <v>55.704230669205792</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" ht="15.75" thickBot="1">
+      <c r="T19" s="21"/>
+    </row>
+    <row r="20" spans="2:20" ht="15.75" thickBot="1">
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="14">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="14">
         <v>0.2</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="20">
         <f t="shared" si="2"/>
@@ -1995,9 +2294,12 @@
         <f>G19+G20</f>
         <v>0.45</v>
       </c>
-      <c r="M20" s="38"/>
+      <c r="M20" s="38">
+        <f>K20*L20</f>
+        <v>7.6500000000000012E-2</v>
+      </c>
       <c r="N20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O20" s="26"/>
       <c r="P20" s="27"/>
@@ -2005,68 +2307,76 @@
         <f>$Q$1/(1/G20)</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" ht="15.75" thickBot="1">
+      <c r="T20" s="21"/>
+    </row>
+    <row r="21" spans="2:20" ht="15.75" thickBot="1">
       <c r="M21" s="39"/>
       <c r="N21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O21" s="26"/>
       <c r="P21" s="27"/>
-      <c r="Q21" s="41"/>
+      <c r="Q21" s="41">
+        <v>12</v>
+      </c>
       <c r="R21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S21" s="21">
         <f>Q19+Q20+Q21</f>
-        <v>89.704230669205799</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" ht="15.75" thickBot="1">
+        <v>101.7042306692058</v>
+      </c>
+      <c r="T21" s="21">
+        <f t="shared" ref="T18:T28" si="3">S21+55</f>
+        <v>156.7042306692058</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" thickBot="1">
       <c r="B22" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M22" s="39"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
-    </row>
-    <row r="23" spans="2:19" ht="15.75" thickBot="1">
+      <c r="T22" s="21"/>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" thickBot="1">
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="12">
         <v>0.81</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="12">
         <v>0.18</v>
       </c>
       <c r="H23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="20">
+        <f t="shared" ref="I23:I24" si="4">IF(E23,E23,C23*G23)</f>
+        <v>0.81</v>
+      </c>
+      <c r="K23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="20">
-        <f t="shared" ref="I23:I24" si="3">IF(E23,E23,C23*G23)</f>
-        <v>0.81</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="L23" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M23" s="38"/>
       <c r="N23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O23" s="23">
         <f>100*100/(19.9*33.3)</f>
@@ -2079,29 +2389,30 @@
         <f>P23*O23</f>
         <v>113.78212383237512</v>
       </c>
-    </row>
-    <row r="24" spans="2:19" ht="15.75" thickBot="1">
+      <c r="T23" s="21"/>
+    </row>
+    <row r="24" spans="2:20" ht="15.75" thickBot="1">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="14">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="14">
         <v>0.27</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K24" s="17">
@@ -2112,9 +2423,12 @@
         <f>G23+G24</f>
         <v>0.45</v>
       </c>
-      <c r="M24" s="38"/>
+      <c r="M24" s="38">
+        <f>K24*L24</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
       <c r="N24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O24" s="26"/>
       <c r="P24" s="27"/>
@@ -2122,11 +2436,12 @@
         <f>$Q$1/(1/G24)</f>
         <v>45.900000000000006</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" ht="15.75" thickBot="1">
+      <c r="T24" s="21"/>
+    </row>
+    <row r="25" spans="2:20" ht="15.75" thickBot="1">
       <c r="M25" s="39"/>
       <c r="N25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="26"/>
       <c r="P25" s="27"/>
@@ -2134,27 +2449,118 @@
         <v>7.5</v>
       </c>
       <c r="R25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S25" s="21">
         <f>Q23+Q24+Q25</f>
         <v>167.18212383237511</v>
       </c>
+      <c r="T25" s="21">
+        <f t="shared" si="3"/>
+        <v>222.18212383237511</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="T26" s="21"/>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="T27" s="21"/>
+    </row>
+    <row r="28" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="20">
+        <f t="shared" ref="I28:I29" si="5">IF(E28,E28,C28*G28)</f>
+        <v>0.73</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28">
+        <v>200</v>
+      </c>
+      <c r="T28" s="21">
+        <f>S28+35</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="14">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="20">
+        <f t="shared" si="5"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K29" s="17">
+        <f>ROUND(1/((G28/I28)+(G29/I29)),2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="L29" s="19">
+        <f>G28+G29</f>
+        <v>0.45</v>
+      </c>
+      <c r="M29" s="38">
+        <f>K29*L29</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="B37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="34">
         <v>170</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -2164,7 +2570,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="35">
-        <f t="shared" ref="D38:D41" si="4">$C$37/C38</f>
+        <f t="shared" ref="D38:D41" si="6">$C$37/C38</f>
         <v>8.5</v>
       </c>
     </row>
@@ -2173,15 +2579,15 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:C42" si="5">1/B39*100</f>
+        <f t="shared" ref="C39:C42" si="7">1/B39*100</f>
         <v>10</v>
       </c>
       <c r="D39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G39">
         <v>0.31</v>
@@ -2192,15 +2598,15 @@
         <v>12</v>
       </c>
       <c r="C40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="D40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20.400000000000002</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>0.25</v>
@@ -2211,15 +2617,15 @@
         <v>15</v>
       </c>
       <c r="C41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.666666666666667</v>
       </c>
       <c r="D41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.5</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G41">
         <f>G39/G40</f>
@@ -2231,7 +2637,7 @@
         <v>20</v>
       </c>
       <c r="C42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D42" s="35">
@@ -2241,12 +2647,12 @@
     </row>
     <row r="43" spans="1:7">
       <c r="C43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="D45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2263,7 +2669,7 @@
         <v>10</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E49" si="6">$C$37/(1/D47*100)</f>
+        <f t="shared" ref="E47:E49" si="8">$C$37/(1/D47*100)</f>
         <v>17</v>
       </c>
     </row>
@@ -2272,7 +2678,7 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25.5</v>
       </c>
     </row>
@@ -2281,7 +2687,7 @@
         <v>20</v>
       </c>
       <c r="E49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
     </row>

--- a/trunk/plan/Materiały budowlane - zestawienia.xlsx
+++ b/trunk/plan/Materiały budowlane - zestawienia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="125">
   <si>
     <t>Bezpieczeństwo</t>
   </si>
@@ -409,6 +409,48 @@
   </si>
   <si>
     <t>50min</t>
+  </si>
+  <si>
+    <t>WYBÓR STYROPIANU</t>
+  </si>
+  <si>
+    <t>Styropian biały</t>
+  </si>
+  <si>
+    <t>Styropian grafitowy</t>
+  </si>
+  <si>
+    <t>λ [W/m2K]</t>
+  </si>
+  <si>
+    <t>Powierzchnia [m2]</t>
+  </si>
+  <si>
+    <t>Grubość[m]</t>
+  </si>
+  <si>
+    <t>Ile m3?</t>
+  </si>
+  <si>
+    <t>Cena m3</t>
+  </si>
+  <si>
+    <t>Koszt całk</t>
+  </si>
+  <si>
+    <t>Styropian 0,0031</t>
+  </si>
+  <si>
+    <t>S. biały Manex</t>
+  </si>
+  <si>
+    <t>S. grafit Manex</t>
+  </si>
+  <si>
+    <t>Swisspor LAMBDA EPS 031 gr. 18</t>
+  </si>
+  <si>
+    <t>Swisspor Lambda EPS 031 Fasada 20 cm</t>
   </si>
 </sst>
 </file>
@@ -733,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -786,12 +828,15 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1123,7 +1168,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1141,7 +1186,7 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="44"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1157,7 +1202,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1">
-      <c r="A4" s="44"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +1222,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1201,7 +1246,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" customHeight="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1263,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="18.75">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1240,7 +1285,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="51" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1299,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" customHeight="1">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1273,7 +1318,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="44"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1327,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1306,7 +1351,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -1320,7 +1365,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
@@ -1726,21 +1771,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
@@ -2327,7 +2373,7 @@
         <v>101.7042306692058</v>
       </c>
       <c r="T21" s="21">
-        <f t="shared" ref="T18:T28" si="3">S21+55</f>
+        <f t="shared" ref="T21:T25" si="3">S21+55</f>
         <v>156.7042306692058</v>
       </c>
     </row>
@@ -2359,7 +2405,7 @@
         <v>53</v>
       </c>
       <c r="G23" s="12">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>56</v>
@@ -2400,32 +2446,32 @@
         <v>52</v>
       </c>
       <c r="E24" s="14">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="14">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>56</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="4"/>
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="K24" s="17">
         <f>ROUND(1/((G23/I23)+(G24/I24)),2)</f>
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="L24" s="19">
         <f>G23+G24</f>
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="M24" s="38">
         <f>K24*L24</f>
-        <v>7.2000000000000008E-2</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="N24" t="s">
         <v>54</v>
@@ -2434,7 +2480,7 @@
       <c r="P24" s="27"/>
       <c r="Q24" s="28">
         <f>$Q$1/(1/G24)</f>
-        <v>45.900000000000006</v>
+        <v>42.5</v>
       </c>
       <c r="T24" s="21"/>
     </row>
@@ -2453,11 +2499,11 @@
       </c>
       <c r="S25" s="21">
         <f>Q23+Q24+Q25</f>
-        <v>167.18212383237511</v>
+        <v>163.78212383237513</v>
       </c>
       <c r="T25" s="21">
         <f t="shared" si="3"/>
-        <v>222.18212383237511</v>
+        <v>218.78212383237513</v>
       </c>
     </row>
     <row r="26" spans="2:20">
@@ -2493,7 +2539,7 @@
         <v>56</v>
       </c>
       <c r="I28" s="20">
-        <f t="shared" ref="I28:I29" si="5">IF(E28,E28,C28*G28)</f>
+        <f t="shared" ref="I28" si="5">IF(E28,E28,C28*G28)</f>
         <v>0.73</v>
       </c>
       <c r="K28" s="16" t="s">
@@ -2531,7 +2577,7 @@
         <v>56</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" si="5"/>
+        <f>IF(E29,E29,C29*G29)</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K29" s="17">
@@ -2547,147 +2593,382 @@
         <v>7.2000000000000008E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="B37" t="s">
+    <row r="31" spans="2:20">
+      <c r="B31" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="5">
+        <v>200</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="F33" s="5">
+        <f>C33*D33</f>
+        <v>50</v>
+      </c>
+      <c r="G33" s="44">
+        <f>E33/D33</f>
+        <v>0.16</v>
+      </c>
+      <c r="H33" s="5">
+        <v>130</v>
+      </c>
+      <c r="I33" s="5">
+        <f>H33*F33</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="5">
+        <v>200</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F34" s="5">
+        <f>C34*D34</f>
+        <v>40</v>
+      </c>
+      <c r="G34" s="44">
+        <f>ROUND(E34/D34,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="H34" s="5">
+        <v>170</v>
+      </c>
+      <c r="I34" s="5">
+        <f>H34*F34</f>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="B35" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="5">
+        <v>200</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E35" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F35" s="5">
+        <f>C35*D35</f>
+        <v>30</v>
+      </c>
+      <c r="G35" s="44">
+        <f>ROUND(E35/D35,2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="H35" s="5">
+        <v>190</v>
+      </c>
+      <c r="I35" s="5">
+        <f>H35*F35</f>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="5">
+        <v>200</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E36" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" ref="F36:F38" si="6">C36*D36</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="G36" s="44">
+        <f t="shared" ref="G36:G37" si="7">ROUND(E36/D36,2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="H36" s="5">
+        <v>132</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" ref="I36:I37" si="8">H36*F36</f>
+        <v>7392.0000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="5">
+        <v>200</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="E37" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="G37" s="44">
+        <f t="shared" si="7"/>
+        <v>0.16</v>
+      </c>
+      <c r="H37" s="5">
+        <v>192</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="8"/>
+        <v>9984</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="45">
+        <v>200</v>
+      </c>
+      <c r="D38" s="45">
+        <v>0.18</v>
+      </c>
+      <c r="E38" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" ref="F38" si="9">C38*D38</f>
+        <v>36</v>
+      </c>
+      <c r="G38" s="44">
+        <f t="shared" ref="G38" si="10">ROUND(E38/D38,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="H38" s="5">
+        <v>138</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" ref="I38" si="11">H38*F38</f>
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="45">
+        <v>200</v>
+      </c>
+      <c r="D39" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="E39" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" ref="F39" si="12">C39*D39</f>
+        <v>40</v>
+      </c>
+      <c r="G39" s="44">
+        <f t="shared" ref="G39" si="13">ROUND(E39/D39,2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="H39" s="5">
+        <v>140</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" ref="I39" si="14">H39*F39</f>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="G41" s="48"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="B44" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C44" s="34">
         <v>170</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
         <v>79</v>
       </c>
-      <c r="B38">
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="C38">
-        <f>1/B38*100</f>
+      <c r="C45">
+        <f>1/B45*100</f>
         <v>20</v>
       </c>
-      <c r="D38" s="35">
-        <f t="shared" ref="D38:D41" si="6">$C$37/C38</f>
+      <c r="D45" s="35">
+        <f t="shared" ref="D45:D48" si="15">$C$44/C45</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="B39">
+    <row r="46" spans="1:9">
+      <c r="B46">
         <v>10</v>
       </c>
-      <c r="C39">
-        <f t="shared" ref="C39:C42" si="7">1/B39*100</f>
+      <c r="C46">
+        <f t="shared" ref="C46:C49" si="16">1/B46*100</f>
         <v>10</v>
       </c>
-      <c r="D39" s="35">
-        <f t="shared" si="6"/>
+      <c r="D46" s="35">
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F46" t="s">
         <v>67</v>
       </c>
-      <c r="G39">
+      <c r="G46">
         <v>0.31</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="B40">
+    <row r="47" spans="1:9">
+      <c r="B47">
         <v>12</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="7"/>
+      <c r="C47">
+        <f t="shared" si="16"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="D40" s="35">
-        <f t="shared" si="6"/>
+      <c r="D47" s="35">
+        <f t="shared" si="15"/>
         <v>20.400000000000002</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F47" t="s">
         <v>68</v>
       </c>
-      <c r="G40">
+      <c r="G47">
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="B41">
+    <row r="48" spans="1:9">
+      <c r="B48">
         <v>15</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="7"/>
+      <c r="C48">
+        <f t="shared" si="16"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="D41" s="35">
-        <f t="shared" si="6"/>
+      <c r="D48" s="35">
+        <f t="shared" si="15"/>
         <v>25.5</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F48" t="s">
         <v>69</v>
       </c>
-      <c r="G41">
-        <f>G39/G40</f>
+      <c r="G48">
+        <f>G46/G47</f>
         <v>1.24</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="B42">
+    <row r="49" spans="2:5">
+      <c r="B49">
         <v>20</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="7"/>
+      <c r="C49">
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="D42" s="35">
-        <f>$C$37/C42</f>
+      <c r="D49" s="35">
+        <f>$C$44/C49</f>
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="C43" t="s">
+    <row r="50" spans="2:5">
+      <c r="C50" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="D45" t="s">
+    <row r="52" spans="2:5">
+      <c r="D52" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="D46">
+    <row r="53" spans="2:5">
+      <c r="D53">
         <v>5</v>
       </c>
-      <c r="E46">
-        <f>$C$37/(1/D46*100)</f>
+      <c r="E53">
+        <f>$C$44/(1/D53*100)</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="D47">
+    <row r="54" spans="2:5">
+      <c r="D54">
         <v>10</v>
       </c>
-      <c r="E47">
-        <f t="shared" ref="E47:E49" si="8">$C$37/(1/D47*100)</f>
+      <c r="E54">
+        <f t="shared" ref="E54:E56" si="17">$C$44/(1/D54*100)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="D48">
+    <row r="55" spans="2:5">
+      <c r="D55">
         <v>15</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="8"/>
+      <c r="E55">
+        <f t="shared" si="17"/>
         <v>25.5</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
-      <c r="D49">
+    <row r="56" spans="2:5">
+      <c r="D56">
         <v>20</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="8"/>
+      <c r="E56">
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
     </row>

--- a/trunk/plan/Materiały budowlane - zestawienia.xlsx
+++ b/trunk/plan/Materiały budowlane - zestawienia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="141">
   <si>
     <t>Bezpieczeństwo</t>
   </si>
@@ -451,6 +451,54 @@
   </si>
   <si>
     <t>Swisspor Lambda EPS 031 Fasada 20 cm</t>
+  </si>
+  <si>
+    <t>estyropian.pl</t>
+  </si>
+  <si>
+    <t>Biały 0,044</t>
+  </si>
+  <si>
+    <t>Biały 0,042</t>
+  </si>
+  <si>
+    <t>Biały 0,04</t>
+  </si>
+  <si>
+    <t>Grafit 0,033</t>
+  </si>
+  <si>
+    <t>Grafit 0,031</t>
+  </si>
+  <si>
+    <t>Styropian.in, Justyr</t>
+  </si>
+  <si>
+    <t>Manex (sierpień)</t>
+  </si>
+  <si>
+    <t>dostawa 50zł brutto</t>
+  </si>
+  <si>
+    <t>Bednarek sklep pl</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>zł/m3</t>
+  </si>
+  <si>
+    <t>cena całosc</t>
+  </si>
+  <si>
+    <t>grub styr</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>Manex (listopad)</t>
   </si>
 </sst>
 </file>
@@ -576,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -771,11 +819,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -830,13 +902,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1168,7 +1260,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1186,7 +1278,7 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1202,7 +1294,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1">
-      <c r="A4" s="46"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1222,7 +1314,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="68" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1246,7 +1338,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" customHeight="1">
-      <c r="A6" s="47"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1355,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="18.75">
-      <c r="A7" s="47"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1377,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="51" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1299,7 +1391,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="67" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1318,7 +1410,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="46"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1327,7 +1419,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="68" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1351,7 +1443,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="47"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -1365,7 +1457,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="47"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
@@ -1771,23 +1863,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" customWidth="1"/>
@@ -2446,7 +2538,7 @@
         <v>52</v>
       </c>
       <c r="E24" s="14">
-        <v>0.04</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>53</v>
@@ -2459,11 +2551,11 @@
       </c>
       <c r="I24" s="20">
         <f t="shared" si="4"/>
-        <v>0.04</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="K24" s="17">
         <f>ROUND(1/((G23/I23)+(G24/I24)),2)</f>
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="L24" s="19">
         <f>G23+G24</f>
@@ -2471,7 +2563,7 @@
       </c>
       <c r="M24" s="38">
         <f>K24*L24</f>
-        <v>7.3499999999999996E-2</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="N24" t="s">
         <v>54</v>
@@ -2622,7 +2714,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="2:9">
       <c r="B33" s="5" t="s">
         <v>112</v>
       </c>
@@ -2651,7 +2743,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="2:9">
       <c r="B34" s="5" t="s">
         <v>113</v>
       </c>
@@ -2680,7 +2772,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="2:9">
       <c r="B35" s="45" t="s">
         <v>120</v>
       </c>
@@ -2709,7 +2801,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="2:9">
       <c r="B36" s="5" t="s">
         <v>121</v>
       </c>
@@ -2723,7 +2815,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" ref="F36:F38" si="6">C36*D36</f>
+        <f t="shared" ref="F36:F37" si="6">C36*D36</f>
         <v>56.000000000000007</v>
       </c>
       <c r="G36" s="44">
@@ -2738,7 +2830,7 @@
         <v>7392.0000000000009</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="2:9">
       <c r="B37" s="5" t="s">
         <v>122</v>
       </c>
@@ -2767,7 +2859,7 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="2:9">
       <c r="B38" s="45" t="s">
         <v>123</v>
       </c>
@@ -2796,179 +2888,1026 @@
         <v>4968</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="45" t="s">
+    <row r="39" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B39" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="47">
         <v>200</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="47">
         <v>0.2</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="48">
         <v>3.1E-2</v>
       </c>
-      <c r="F39" s="5">
-        <f t="shared" ref="F39" si="12">C39*D39</f>
+      <c r="F39" s="48">
+        <f t="shared" ref="F39:F45" si="12">C39*D39</f>
         <v>40</v>
       </c>
-      <c r="G39" s="44">
-        <f t="shared" ref="G39" si="13">ROUND(E39/D39,2)</f>
+      <c r="G39" s="49">
+        <f t="shared" ref="G39:G45" si="13">ROUND(E39/D39,2)</f>
         <v>0.16</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="48">
         <v>140</v>
       </c>
-      <c r="I39" s="5">
-        <f t="shared" ref="I39" si="14">H39*F39</f>
+      <c r="I39" s="48">
+        <f t="shared" ref="I39:I45" si="14">H39*F39</f>
         <v>5600</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="G41" s="48"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="B44" t="s">
+    <row r="40" spans="2:9">
+      <c r="B40" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="53"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="55"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="45">
+        <v>200</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E41" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F41" s="45">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="G41" s="51">
+        <f t="shared" si="13"/>
+        <v>0.18</v>
+      </c>
+      <c r="H41" s="45">
+        <v>154</v>
+      </c>
+      <c r="I41" s="57">
+        <f t="shared" si="14"/>
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="45">
+        <v>200</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E42" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F42" s="45">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="G42" s="51">
+        <f t="shared" si="13"/>
+        <v>0.17</v>
+      </c>
+      <c r="H42" s="45">
+        <v>144</v>
+      </c>
+      <c r="I42" s="57">
+        <f t="shared" si="14"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="45">
+        <v>200</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="F43" s="45">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="G43" s="51">
+        <f t="shared" si="13"/>
+        <v>0.16</v>
+      </c>
+      <c r="H43" s="45">
+        <v>155</v>
+      </c>
+      <c r="I43" s="57">
+        <f t="shared" si="14"/>
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="45">
+        <v>200</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E44" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F44" s="45">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="G44" s="51">
+        <f t="shared" si="13"/>
+        <v>0.17</v>
+      </c>
+      <c r="H44" s="45">
+        <v>202</v>
+      </c>
+      <c r="I44" s="57">
+        <f t="shared" si="14"/>
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B45" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="59">
+        <v>200</v>
+      </c>
+      <c r="D45" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="E45" s="60">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F45" s="59">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="G45" s="61">
+        <f t="shared" si="13"/>
+        <v>0.16</v>
+      </c>
+      <c r="H45" s="59">
+        <v>212</v>
+      </c>
+      <c r="I45" s="62">
+        <f t="shared" si="14"/>
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="63"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="45">
+        <v>200</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E47" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F47" s="45">
+        <f t="shared" ref="F47:F51" si="15">C47*D47</f>
+        <v>50</v>
+      </c>
+      <c r="G47" s="51">
+        <f t="shared" ref="G47:G51" si="16">ROUND(E47/D47,2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="H47" s="45">
+        <v>0</v>
+      </c>
+      <c r="I47" s="57">
+        <f t="shared" ref="I47:I51" si="17">H47*F47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="45">
+        <v>200</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E48" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F48" s="45">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="G48" s="51">
+        <f t="shared" si="16"/>
+        <v>0.17</v>
+      </c>
+      <c r="H48" s="45">
+        <v>130</v>
+      </c>
+      <c r="I48" s="64">
+        <f t="shared" si="17"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="45">
+        <v>200</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="F49" s="45">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="G49" s="51">
+        <f t="shared" si="16"/>
+        <v>0.16</v>
+      </c>
+      <c r="H49" s="45">
+        <v>135</v>
+      </c>
+      <c r="I49" s="57">
+        <f t="shared" si="17"/>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="45">
+        <v>200</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F50" s="45">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="G50" s="51">
+        <f t="shared" si="16"/>
+        <v>0.17</v>
+      </c>
+      <c r="H50" s="45">
+        <v>192</v>
+      </c>
+      <c r="I50" s="57">
+        <f t="shared" si="17"/>
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B51" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="59">
+        <v>200</v>
+      </c>
+      <c r="D51" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="E51" s="60">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F51" s="59">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="G51" s="61">
+        <f t="shared" si="16"/>
+        <v>0.16</v>
+      </c>
+      <c r="H51" s="59">
+        <v>206</v>
+      </c>
+      <c r="I51" s="62">
+        <f t="shared" si="17"/>
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" s="55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="45">
+        <v>200</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E53" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F53" s="45">
+        <f t="shared" ref="F53:F57" si="18">C53*D53</f>
+        <v>50</v>
+      </c>
+      <c r="G53" s="51">
+        <f t="shared" ref="G53:G57" si="19">ROUND(E53/D53,2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="H53" s="45">
+        <v>132</v>
+      </c>
+      <c r="I53" s="57">
+        <f t="shared" ref="I53:I57" si="20">H53*F53</f>
+        <v>6600</v>
+      </c>
+      <c r="K53">
+        <v>12</v>
+      </c>
+      <c r="L53">
+        <f>I53/K53</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="45">
+        <v>200</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E54" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F54" s="45">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="G54" s="51">
+        <f t="shared" si="19"/>
+        <v>0.17</v>
+      </c>
+      <c r="H54" s="45">
+        <v>140</v>
+      </c>
+      <c r="I54" s="64">
+        <f t="shared" si="20"/>
+        <v>7000</v>
+      </c>
+      <c r="K54">
+        <v>13</v>
+      </c>
+      <c r="L54">
+        <f>I54/K54</f>
+        <v>538.46153846153845</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="45">
+        <v>200</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="F55" s="45">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="G55" s="51">
+        <f t="shared" si="19"/>
+        <v>0.16</v>
+      </c>
+      <c r="H55" s="45">
+        <v>151</v>
+      </c>
+      <c r="I55" s="57">
+        <f t="shared" si="20"/>
+        <v>7550</v>
+      </c>
+      <c r="K55">
+        <v>14</v>
+      </c>
+      <c r="L55">
+        <f>I55/K55</f>
+        <v>539.28571428571433</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="45">
+        <v>200</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E56" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F56" s="45">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+      <c r="G56" s="51">
+        <f t="shared" si="19"/>
+        <v>0.17</v>
+      </c>
+      <c r="H56" s="45">
+        <v>187</v>
+      </c>
+      <c r="I56" s="57">
+        <f t="shared" si="20"/>
+        <v>7480</v>
+      </c>
+      <c r="K56">
+        <v>13</v>
+      </c>
+      <c r="L56">
+        <f>I56/K56</f>
+        <v>575.38461538461536</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B57" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="59">
+        <v>200</v>
+      </c>
+      <c r="D57" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="E57" s="60">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F57" s="59">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+      <c r="G57" s="61">
+        <f t="shared" si="19"/>
+        <v>0.16</v>
+      </c>
+      <c r="H57" s="59">
+        <v>197</v>
+      </c>
+      <c r="I57" s="62">
+        <f t="shared" si="20"/>
+        <v>7880</v>
+      </c>
+      <c r="K57">
+        <v>14</v>
+      </c>
+      <c r="L57">
+        <f>I57/K57</f>
+        <v>562.85714285714289</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="45">
+        <v>200</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E59" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F59" s="45">
+        <f t="shared" ref="F59:F63" si="21">C59*D59</f>
+        <v>50</v>
+      </c>
+      <c r="G59" s="51">
+        <f t="shared" ref="G59:G63" si="22">ROUND(E59/D59,2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="H59" s="45"/>
+      <c r="I59" s="57">
+        <f t="shared" ref="I59:I63" si="23">H59*F59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="45">
+        <v>200</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E60" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F60" s="45">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="G60" s="51">
+        <f t="shared" si="22"/>
+        <v>0.17</v>
+      </c>
+      <c r="H60" s="45">
+        <v>140</v>
+      </c>
+      <c r="I60" s="65">
+        <f t="shared" si="23"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="45">
+        <v>200</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="F61" s="45">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="G61" s="51">
+        <f t="shared" si="22"/>
+        <v>0.16</v>
+      </c>
+      <c r="H61" s="45">
+        <v>159</v>
+      </c>
+      <c r="I61" s="57">
+        <f t="shared" si="23"/>
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="45">
+        <v>200</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E62" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F62" s="45">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="G62" s="51">
+        <f t="shared" si="22"/>
+        <v>0.17</v>
+      </c>
+      <c r="H62" s="45"/>
+      <c r="I62" s="57">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B63" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="59">
+        <v>200</v>
+      </c>
+      <c r="D63" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="E63" s="60">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F63" s="59">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="G63" s="61">
+        <f t="shared" si="22"/>
+        <v>0.16</v>
+      </c>
+      <c r="H63" s="59">
+        <v>205</v>
+      </c>
+      <c r="I63" s="62">
+        <f t="shared" si="23"/>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="G64" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="I64" s="55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="B65" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="45">
+        <v>200</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E65" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F65" s="45">
+        <f t="shared" ref="F65:F69" si="24">C65*D65</f>
+        <v>50</v>
+      </c>
+      <c r="G65" s="51">
+        <f t="shared" ref="G65:G69" si="25">ROUND(E65/D65,2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="H65" s="45">
+        <v>141</v>
+      </c>
+      <c r="I65" s="57">
+        <f t="shared" ref="I65:I69" si="26">H65*F65</f>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="B66" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="45">
+        <v>200</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E66" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F66" s="45">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="G66" s="51">
+        <f t="shared" si="25"/>
+        <v>0.17</v>
+      </c>
+      <c r="H66" s="45">
+        <v>147</v>
+      </c>
+      <c r="I66" s="64">
+        <f t="shared" si="26"/>
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="B67" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="45">
+        <v>200</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="F67" s="45">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="G67" s="51">
+        <f t="shared" si="25"/>
+        <v>0.16</v>
+      </c>
+      <c r="H67" s="45">
+        <v>161</v>
+      </c>
+      <c r="I67" s="57">
+        <f t="shared" si="26"/>
+        <v>8050</v>
+      </c>
+      <c r="K67">
+        <f>200*50</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="B68" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="45">
+        <v>200</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E68" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F68" s="45">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="G68" s="51">
+        <f t="shared" si="25"/>
+        <v>0.17</v>
+      </c>
+      <c r="H68" s="45">
+        <v>195</v>
+      </c>
+      <c r="I68" s="57">
+        <f t="shared" si="26"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B69" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="59">
+        <v>200</v>
+      </c>
+      <c r="D69" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="E69" s="60">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F69" s="59">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="G69" s="61">
+        <f t="shared" si="25"/>
+        <v>0.16</v>
+      </c>
+      <c r="H69" s="59">
+        <v>205</v>
+      </c>
+      <c r="I69" s="62">
+        <f t="shared" si="26"/>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="B70" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C70" s="34">
         <v>170</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
         <v>79</v>
       </c>
-      <c r="B45">
+      <c r="B71">
         <v>5</v>
       </c>
-      <c r="C45">
-        <f>1/B45*100</f>
+      <c r="C71">
+        <f>1/B71*100</f>
         <v>20</v>
       </c>
-      <c r="D45" s="35">
-        <f t="shared" ref="D45:D48" si="15">$C$44/C45</f>
+      <c r="D71" s="35">
+        <f t="shared" ref="D71:D74" si="27">$C$70/C71</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="B46">
+    <row r="72" spans="1:11">
+      <c r="B72">
         <v>10</v>
       </c>
-      <c r="C46">
-        <f t="shared" ref="C46:C49" si="16">1/B46*100</f>
+      <c r="C72">
+        <f t="shared" ref="C72:C75" si="28">1/B72*100</f>
         <v>10</v>
       </c>
-      <c r="D46" s="35">
-        <f t="shared" si="15"/>
+      <c r="D72" s="35">
+        <f t="shared" si="27"/>
         <v>17</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F72" t="s">
         <v>67</v>
       </c>
-      <c r="G46">
+      <c r="G72">
         <v>0.31</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="B47">
+    <row r="73" spans="1:11">
+      <c r="B73">
         <v>12</v>
       </c>
-      <c r="C47">
-        <f t="shared" si="16"/>
+      <c r="C73">
+        <f t="shared" si="28"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="D47" s="35">
-        <f t="shared" si="15"/>
+      <c r="D73" s="35">
+        <f t="shared" si="27"/>
         <v>20.400000000000002</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F73" t="s">
         <v>68</v>
       </c>
-      <c r="G47">
+      <c r="G73">
         <v>0.25</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="B48">
+    <row r="74" spans="1:11">
+      <c r="B74">
         <v>15</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="16"/>
+      <c r="C74">
+        <f t="shared" si="28"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="D48" s="35">
-        <f t="shared" si="15"/>
+      <c r="D74" s="35">
+        <f t="shared" si="27"/>
         <v>25.5</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F74" t="s">
         <v>69</v>
       </c>
-      <c r="G48">
-        <f>G46/G47</f>
+      <c r="G74">
+        <f>G72/G73</f>
         <v>1.24</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
-      <c r="B49">
+    <row r="75" spans="1:11">
+      <c r="B75">
         <v>20</v>
       </c>
-      <c r="C49">
-        <f t="shared" si="16"/>
+      <c r="C75">
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
-      <c r="D49" s="35">
-        <f>$C$44/C49</f>
+      <c r="D75" s="35">
+        <f>$C$70/C75</f>
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
-      <c r="C50" t="s">
+    <row r="76" spans="1:11">
+      <c r="C76" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
-      <c r="D52" t="s">
+    <row r="78" spans="1:11">
+      <c r="D78" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
-      <c r="D53">
+    <row r="79" spans="1:11">
+      <c r="D79">
         <v>5</v>
       </c>
-      <c r="E53">
-        <f>$C$44/(1/D53*100)</f>
+      <c r="E79">
+        <f>$C$70/(1/D79*100)</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
-      <c r="D54">
+    <row r="80" spans="1:11">
+      <c r="D80">
         <v>10</v>
       </c>
-      <c r="E54">
-        <f t="shared" ref="E54:E56" si="17">$C$44/(1/D54*100)</f>
+      <c r="E80">
+        <f>$C$70/(1/D80*100)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
-      <c r="D55">
+    <row r="81" spans="4:5">
+      <c r="D81">
         <v>15</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="17"/>
+      <c r="E81">
+        <f>$C$70/(1/D81*100)</f>
         <v>25.5</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
-      <c r="D56">
+    <row r="82" spans="4:5">
+      <c r="D82">
         <v>20</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="17"/>
+      <c r="E82">
+        <f>$C$70/(1/D82*100)</f>
         <v>34</v>
       </c>
     </row>

--- a/trunk/plan/Materiały budowlane - zestawienia.xlsx
+++ b/trunk/plan/Materiały budowlane - zestawienia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="141">
   <si>
     <t>Bezpieczeństwo</t>
   </si>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2719,7 +2719,7 @@
         <v>112</v>
       </c>
       <c r="C33" s="5">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D33" s="5">
         <v>0.25</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F33" s="5">
         <f>C33*D33</f>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G33" s="44">
         <f>E33/D33</f>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="I33" s="5">
         <f>H33*F33</f>
-        <v>6500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -2748,7 +2748,7 @@
         <v>113</v>
       </c>
       <c r="C34" s="5">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D34" s="5">
         <v>0.2</v>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="F34" s="5">
         <f>C34*D34</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34" s="44">
         <f>ROUND(E34/D34,2)</f>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="I34" s="5">
         <f>H34*F34</f>
-        <v>6800</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -2777,7 +2777,7 @@
         <v>120</v>
       </c>
       <c r="C35" s="5">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D35" s="5">
         <v>0.15</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="F35" s="5">
         <f>C35*D35</f>
-        <v>30</v>
+        <v>37.5</v>
       </c>
       <c r="G35" s="44">
         <f>ROUND(E35/D35,2)</f>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="I35" s="5">
         <f>H35*F35</f>
-        <v>5700</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -2806,7 +2806,7 @@
         <v>121</v>
       </c>
       <c r="C36" s="5">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D36" s="5">
         <v>0.28000000000000003</v>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="F36" s="5">
         <f t="shared" ref="F36:F37" si="6">C36*D36</f>
-        <v>56.000000000000007</v>
+        <v>70</v>
       </c>
       <c r="G36" s="44">
         <f t="shared" ref="G36:G37" si="7">ROUND(E36/D36,2)</f>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="I36" s="5">
         <f t="shared" ref="I36:I37" si="8">H36*F36</f>
-        <v>7392.0000000000009</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -2835,7 +2835,7 @@
         <v>122</v>
       </c>
       <c r="C37" s="5">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D37" s="5">
         <v>0.26</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="F37" s="5">
         <f t="shared" si="6"/>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G37" s="44">
         <f t="shared" si="7"/>
@@ -2856,15 +2856,15 @@
       </c>
       <c r="I37" s="5">
         <f t="shared" si="8"/>
-        <v>9984</v>
+        <v>12480</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="45">
-        <v>200</v>
+      <c r="C38" s="5">
+        <v>250</v>
       </c>
       <c r="D38" s="45">
         <v>0.18</v>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" ref="F38" si="9">C38*D38</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G38" s="44">
         <f t="shared" ref="G38" si="10">ROUND(E38/D38,2)</f>
@@ -2885,15 +2885,15 @@
       </c>
       <c r="I38" s="5">
         <f t="shared" ref="I38" si="11">H38*F38</f>
-        <v>4968</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="15.75" thickBot="1">
       <c r="B39" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="47">
-        <v>200</v>
+      <c r="C39" s="5">
+        <v>250</v>
       </c>
       <c r="D39" s="47">
         <v>0.2</v>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="F39" s="48">
         <f t="shared" ref="F39:F45" si="12">C39*D39</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39" s="49">
         <f t="shared" ref="G39:G45" si="13">ROUND(E39/D39,2)</f>
@@ -2914,14 +2914,16 @@
       </c>
       <c r="I39" s="48">
         <f t="shared" ref="I39:I45" si="14">H39*F39</f>
-        <v>5600</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="53"/>
+      <c r="C40" s="5">
+        <v>250</v>
+      </c>
       <c r="D40" s="50"/>
       <c r="E40" s="50"/>
       <c r="F40" s="53"/>
@@ -2933,8 +2935,8 @@
       <c r="B41" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="45">
-        <v>200</v>
+      <c r="C41" s="5">
+        <v>250</v>
       </c>
       <c r="D41" s="5">
         <v>0.25</v>
@@ -2944,7 +2946,7 @@
       </c>
       <c r="F41" s="45">
         <f t="shared" si="12"/>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G41" s="51">
         <f t="shared" si="13"/>
@@ -2955,15 +2957,15 @@
       </c>
       <c r="I41" s="57">
         <f t="shared" si="14"/>
-        <v>7700</v>
+        <v>9625</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="45">
-        <v>200</v>
+      <c r="C42" s="5">
+        <v>250</v>
       </c>
       <c r="D42" s="5">
         <v>0.25</v>
@@ -2973,7 +2975,7 @@
       </c>
       <c r="F42" s="45">
         <f t="shared" si="12"/>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G42" s="51">
         <f t="shared" si="13"/>
@@ -2984,15 +2986,15 @@
       </c>
       <c r="I42" s="57">
         <f t="shared" si="14"/>
-        <v>7200</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="45">
-        <v>200</v>
+      <c r="C43" s="5">
+        <v>250</v>
       </c>
       <c r="D43" s="5">
         <v>0.25</v>
@@ -3002,7 +3004,7 @@
       </c>
       <c r="F43" s="45">
         <f t="shared" si="12"/>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G43" s="51">
         <f t="shared" si="13"/>
@@ -3013,15 +3015,15 @@
       </c>
       <c r="I43" s="57">
         <f t="shared" si="14"/>
-        <v>7750</v>
+        <v>9687.5</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="45">
-        <v>200</v>
+      <c r="C44" s="5">
+        <v>250</v>
       </c>
       <c r="D44" s="5">
         <v>0.2</v>
@@ -3031,7 +3033,7 @@
       </c>
       <c r="F44" s="45">
         <f t="shared" si="12"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44" s="51">
         <f t="shared" si="13"/>
@@ -3042,15 +3044,15 @@
       </c>
       <c r="I44" s="57">
         <f t="shared" si="14"/>
-        <v>8080</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1">
       <c r="B45" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="59">
-        <v>200</v>
+      <c r="C45" s="5">
+        <v>250</v>
       </c>
       <c r="D45" s="60">
         <v>0.2</v>
@@ -3060,7 +3062,7 @@
       </c>
       <c r="F45" s="59">
         <f t="shared" si="12"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45" s="61">
         <f t="shared" si="13"/>
@@ -3071,7 +3073,7 @@
       </c>
       <c r="I45" s="62">
         <f t="shared" si="14"/>
-        <v>8480</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -3095,7 +3097,7 @@
         <v>126</v>
       </c>
       <c r="C47" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D47" s="5">
         <v>0.25</v>
@@ -3105,7 +3107,7 @@
       </c>
       <c r="F47" s="45">
         <f t="shared" ref="F47:F51" si="15">C47*D47</f>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G47" s="51">
         <f t="shared" ref="G47:G51" si="16">ROUND(E47/D47,2)</f>
@@ -3124,7 +3126,7 @@
         <v>127</v>
       </c>
       <c r="C48" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D48" s="5">
         <v>0.25</v>
@@ -3134,7 +3136,7 @@
       </c>
       <c r="F48" s="45">
         <f t="shared" si="15"/>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G48" s="51">
         <f t="shared" si="16"/>
@@ -3145,7 +3147,7 @@
       </c>
       <c r="I48" s="64">
         <f t="shared" si="17"/>
-        <v>6500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="49" spans="2:12">
@@ -3153,7 +3155,7 @@
         <v>128</v>
       </c>
       <c r="C49" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D49" s="5">
         <v>0.25</v>
@@ -3163,7 +3165,7 @@
       </c>
       <c r="F49" s="45">
         <f t="shared" si="15"/>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G49" s="51">
         <f t="shared" si="16"/>
@@ -3174,7 +3176,7 @@
       </c>
       <c r="I49" s="57">
         <f t="shared" si="17"/>
-        <v>6750</v>
+        <v>8437.5</v>
       </c>
     </row>
     <row r="50" spans="2:12">
@@ -3182,7 +3184,7 @@
         <v>129</v>
       </c>
       <c r="C50" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D50" s="5">
         <v>0.2</v>
@@ -3192,7 +3194,7 @@
       </c>
       <c r="F50" s="45">
         <f t="shared" si="15"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50" s="51">
         <f t="shared" si="16"/>
@@ -3203,15 +3205,15 @@
       </c>
       <c r="I50" s="57">
         <f t="shared" si="17"/>
-        <v>7680</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="15.75" thickBot="1">
       <c r="B51" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="59">
-        <v>200</v>
+      <c r="C51" s="45">
+        <v>250</v>
       </c>
       <c r="D51" s="60">
         <v>0.2</v>
@@ -3221,7 +3223,7 @@
       </c>
       <c r="F51" s="59">
         <f t="shared" si="15"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51" s="61">
         <f t="shared" si="16"/>
@@ -3232,15 +3234,15 @@
       </c>
       <c r="I51" s="62">
         <f t="shared" si="17"/>
-        <v>8240</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="53" t="s">
-        <v>80</v>
+      <c r="C52" s="45">
+        <v>250</v>
       </c>
       <c r="D52" s="50" t="s">
         <v>138</v>
@@ -3266,7 +3268,7 @@
         <v>126</v>
       </c>
       <c r="C53" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D53" s="5">
         <v>0.25</v>
@@ -3276,7 +3278,7 @@
       </c>
       <c r="F53" s="45">
         <f t="shared" ref="F53:F57" si="18">C53*D53</f>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G53" s="51">
         <f t="shared" ref="G53:G57" si="19">ROUND(E53/D53,2)</f>
@@ -3287,14 +3289,14 @@
       </c>
       <c r="I53" s="57">
         <f t="shared" ref="I53:I57" si="20">H53*F53</f>
-        <v>6600</v>
+        <v>8250</v>
       </c>
       <c r="K53">
         <v>12</v>
       </c>
       <c r="L53">
         <f>I53/K53</f>
-        <v>550</v>
+        <v>687.5</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -3302,7 +3304,7 @@
         <v>127</v>
       </c>
       <c r="C54" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D54" s="5">
         <v>0.25</v>
@@ -3312,7 +3314,7 @@
       </c>
       <c r="F54" s="45">
         <f t="shared" si="18"/>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G54" s="51">
         <f t="shared" si="19"/>
@@ -3323,14 +3325,14 @@
       </c>
       <c r="I54" s="64">
         <f t="shared" si="20"/>
-        <v>7000</v>
+        <v>8750</v>
       </c>
       <c r="K54">
         <v>13</v>
       </c>
       <c r="L54">
         <f>I54/K54</f>
-        <v>538.46153846153845</v>
+        <v>673.07692307692309</v>
       </c>
     </row>
     <row r="55" spans="2:12">
@@ -3338,7 +3340,7 @@
         <v>128</v>
       </c>
       <c r="C55" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D55" s="5">
         <v>0.25</v>
@@ -3348,7 +3350,7 @@
       </c>
       <c r="F55" s="45">
         <f t="shared" si="18"/>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G55" s="51">
         <f t="shared" si="19"/>
@@ -3359,14 +3361,14 @@
       </c>
       <c r="I55" s="57">
         <f t="shared" si="20"/>
-        <v>7550</v>
+        <v>9437.5</v>
       </c>
       <c r="K55">
         <v>14</v>
       </c>
       <c r="L55">
         <f>I55/K55</f>
-        <v>539.28571428571433</v>
+        <v>674.10714285714289</v>
       </c>
     </row>
     <row r="56" spans="2:12">
@@ -3374,7 +3376,7 @@
         <v>129</v>
       </c>
       <c r="C56" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D56" s="5">
         <v>0.2</v>
@@ -3384,7 +3386,7 @@
       </c>
       <c r="F56" s="45">
         <f t="shared" si="18"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G56" s="51">
         <f t="shared" si="19"/>
@@ -3395,22 +3397,22 @@
       </c>
       <c r="I56" s="57">
         <f t="shared" si="20"/>
-        <v>7480</v>
+        <v>9350</v>
       </c>
       <c r="K56">
         <v>13</v>
       </c>
       <c r="L56">
         <f>I56/K56</f>
-        <v>575.38461538461536</v>
+        <v>719.23076923076928</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="15.75" thickBot="1">
       <c r="B57" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="59">
-        <v>200</v>
+      <c r="C57" s="45">
+        <v>250</v>
       </c>
       <c r="D57" s="60">
         <v>0.2</v>
@@ -3420,7 +3422,7 @@
       </c>
       <c r="F57" s="59">
         <f t="shared" si="18"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G57" s="61">
         <f t="shared" si="19"/>
@@ -3431,21 +3433,23 @@
       </c>
       <c r="I57" s="62">
         <f t="shared" si="20"/>
-        <v>7880</v>
+        <v>9850</v>
       </c>
       <c r="K57">
         <v>14</v>
       </c>
       <c r="L57">
         <f>I57/K57</f>
-        <v>562.85714285714289</v>
+        <v>703.57142857142856</v>
       </c>
     </row>
     <row r="58" spans="2:12">
       <c r="B58" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="38"/>
+      <c r="C58" s="45">
+        <v>250</v>
+      </c>
       <c r="F58" s="38"/>
       <c r="G58" s="46"/>
       <c r="H58" s="38"/>
@@ -3456,7 +3460,7 @@
         <v>126</v>
       </c>
       <c r="C59" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D59" s="5">
         <v>0.25</v>
@@ -3466,7 +3470,7 @@
       </c>
       <c r="F59" s="45">
         <f t="shared" ref="F59:F63" si="21">C59*D59</f>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G59" s="51">
         <f t="shared" ref="G59:G63" si="22">ROUND(E59/D59,2)</f>
@@ -3483,7 +3487,7 @@
         <v>127</v>
       </c>
       <c r="C60" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D60" s="5">
         <v>0.25</v>
@@ -3493,7 +3497,7 @@
       </c>
       <c r="F60" s="45">
         <f t="shared" si="21"/>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G60" s="51">
         <f t="shared" si="22"/>
@@ -3504,7 +3508,7 @@
       </c>
       <c r="I60" s="65">
         <f t="shared" si="23"/>
-        <v>7000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="61" spans="2:12">
@@ -3512,7 +3516,7 @@
         <v>128</v>
       </c>
       <c r="C61" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D61" s="5">
         <v>0.25</v>
@@ -3522,7 +3526,7 @@
       </c>
       <c r="F61" s="45">
         <f t="shared" si="21"/>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G61" s="51">
         <f t="shared" si="22"/>
@@ -3533,7 +3537,7 @@
       </c>
       <c r="I61" s="57">
         <f t="shared" si="23"/>
-        <v>7950</v>
+        <v>9937.5</v>
       </c>
     </row>
     <row r="62" spans="2:12">
@@ -3541,7 +3545,7 @@
         <v>129</v>
       </c>
       <c r="C62" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D62" s="5">
         <v>0.2</v>
@@ -3551,7 +3555,7 @@
       </c>
       <c r="F62" s="45">
         <f t="shared" si="21"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G62" s="51">
         <f t="shared" si="22"/>
@@ -3567,8 +3571,8 @@
       <c r="B63" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="59">
-        <v>200</v>
+      <c r="C63" s="45">
+        <v>250</v>
       </c>
       <c r="D63" s="60">
         <v>0.2</v>
@@ -3578,7 +3582,7 @@
       </c>
       <c r="F63" s="59">
         <f t="shared" si="21"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G63" s="61">
         <f t="shared" si="22"/>
@@ -3589,15 +3593,15 @@
       </c>
       <c r="I63" s="62">
         <f t="shared" si="23"/>
-        <v>8200</v>
+        <v>10250</v>
       </c>
     </row>
     <row r="64" spans="2:12">
       <c r="B64" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="53" t="s">
-        <v>80</v>
+      <c r="C64" s="45">
+        <v>250</v>
       </c>
       <c r="D64" s="50" t="s">
         <v>138</v>
@@ -3623,7 +3627,7 @@
         <v>126</v>
       </c>
       <c r="C65" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D65" s="5">
         <v>0.25</v>
@@ -3633,7 +3637,7 @@
       </c>
       <c r="F65" s="45">
         <f t="shared" ref="F65:F69" si="24">C65*D65</f>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G65" s="51">
         <f t="shared" ref="G65:G69" si="25">ROUND(E65/D65,2)</f>
@@ -3644,7 +3648,7 @@
       </c>
       <c r="I65" s="57">
         <f t="shared" ref="I65:I69" si="26">H65*F65</f>
-        <v>7050</v>
+        <v>8812.5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3652,7 +3656,7 @@
         <v>127</v>
       </c>
       <c r="C66" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D66" s="5">
         <v>0.25</v>
@@ -3662,7 +3666,7 @@
       </c>
       <c r="F66" s="45">
         <f t="shared" si="24"/>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G66" s="51">
         <f t="shared" si="25"/>
@@ -3673,7 +3677,7 @@
       </c>
       <c r="I66" s="64">
         <f t="shared" si="26"/>
-        <v>7350</v>
+        <v>9187.5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3681,7 +3685,7 @@
         <v>128</v>
       </c>
       <c r="C67" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D67" s="5">
         <v>0.25</v>
@@ -3691,7 +3695,7 @@
       </c>
       <c r="F67" s="45">
         <f t="shared" si="24"/>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G67" s="51">
         <f t="shared" si="25"/>
@@ -3702,7 +3706,7 @@
       </c>
       <c r="I67" s="57">
         <f t="shared" si="26"/>
-        <v>8050</v>
+        <v>10062.5</v>
       </c>
       <c r="K67">
         <f>200*50</f>
@@ -3714,7 +3718,7 @@
         <v>129</v>
       </c>
       <c r="C68" s="45">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D68" s="5">
         <v>0.2</v>
@@ -3724,7 +3728,7 @@
       </c>
       <c r="F68" s="45">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G68" s="51">
         <f t="shared" si="25"/>
@@ -3735,15 +3739,15 @@
       </c>
       <c r="I68" s="57">
         <f t="shared" si="26"/>
-        <v>7800</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1">
       <c r="B69" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="59">
-        <v>200</v>
+      <c r="C69" s="45">
+        <v>250</v>
       </c>
       <c r="D69" s="60">
         <v>0.2</v>
@@ -3753,7 +3757,7 @@
       </c>
       <c r="F69" s="59">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G69" s="61">
         <f t="shared" si="25"/>
@@ -3764,7 +3768,7 @@
       </c>
       <c r="I69" s="62">
         <f t="shared" si="26"/>
-        <v>8200</v>
+        <v>10250</v>
       </c>
     </row>
     <row r="70" spans="1:11">

--- a/trunk/plan/Materiały budowlane - zestawienia.xlsx
+++ b/trunk/plan/Materiały budowlane - zestawienia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="137">
   <si>
     <t>Bezpieczeństwo</t>
   </si>
@@ -246,15 +246,6 @@
     <t>koszt m2</t>
   </si>
   <si>
-    <t>U = l / d</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -280,18 +271,6 @@
   </si>
   <si>
     <t>SILKA E 18A</t>
-  </si>
-  <si>
-    <t>1m3</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>grubosc [cm]</t>
   </si>
   <si>
     <t>1m3 styropianu</t>
@@ -499,6 +478,15 @@
   </si>
   <si>
     <t>Manex (listopad)</t>
+  </si>
+  <si>
+    <t>Wełna mineralna</t>
+  </si>
+  <si>
+    <t>W/mK</t>
+  </si>
+  <si>
+    <t>grubosc</t>
   </si>
 </sst>
 </file>
@@ -1488,40 +1476,40 @@
     </row>
     <row r="18" spans="1:11">
       <c r="F18" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1592,7 +1580,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B22">
         <f>D22*1+E22*2.55+F22*1.85+G22*1.1+H22*2+I22*0.75+J22*0.5+K22*0.25</f>
@@ -1688,10 +1676,10 @@
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -1699,13 +1687,13 @@
     </row>
     <row r="31" spans="1:11">
       <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
         <v>103</v>
-      </c>
-      <c r="E31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" t="s">
-        <v>110</v>
       </c>
       <c r="G31">
         <v>7</v>
@@ -1713,13 +1701,13 @@
     </row>
     <row r="32" spans="1:11">
       <c r="C32" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -1730,10 +1718,10 @@
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1863,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W82"/>
+  <dimension ref="B1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1897,7 +1885,7 @@
         <v>60</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P1" s="36"/>
       <c r="Q1" s="37">
@@ -1906,12 +1894,12 @@
     </row>
     <row r="2" spans="2:23" ht="15.75" thickBot="1">
       <c r="H2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="15.75" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
         <v>55</v>
@@ -1943,7 +1931,7 @@
         <v>0.247</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G4" s="12">
         <v>0.24</v>
@@ -2034,7 +2022,7 @@
     </row>
     <row r="8" spans="2:23" ht="15.75" thickBot="1">
       <c r="B8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13" t="s">
@@ -2135,7 +2123,7 @@
     </row>
     <row r="12" spans="2:23" ht="15.75" thickBot="1">
       <c r="B12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" s="12">
         <v>0.35</v>
@@ -2227,7 +2215,7 @@
     </row>
     <row r="15" spans="2:23" ht="15.75" thickBot="1">
       <c r="B15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" s="12">
         <v>0.53</v>
@@ -2257,7 +2245,7 @@
       </c>
       <c r="M15" s="38"/>
       <c r="N15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O15" s="23">
         <f>100*100/(23.8*30)</f>
@@ -2321,7 +2309,7 @@
     <row r="17" spans="2:20" ht="15.75" thickBot="1">
       <c r="M17" s="39"/>
       <c r="N17" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O17" s="26"/>
       <c r="P17" s="27"/>
@@ -2329,7 +2317,7 @@
         <v>12</v>
       </c>
       <c r="R17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S17" s="21">
         <f>Q15+Q16+Q17</f>
@@ -2342,7 +2330,7 @@
     </row>
     <row r="18" spans="2:20" ht="15.75" thickBot="1">
       <c r="B18" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I18" s="20" t="s">
         <v>58</v>
@@ -2355,7 +2343,7 @@
     </row>
     <row r="19" spans="2:20" ht="15.75" thickBot="1">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="13" t="s">
@@ -2385,7 +2373,7 @@
       </c>
       <c r="M19" s="38"/>
       <c r="N19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O19" s="23">
         <f>100*100/(19.9*59.9)</f>
@@ -2450,7 +2438,7 @@
     <row r="21" spans="2:20" ht="15.75" thickBot="1">
       <c r="M21" s="39"/>
       <c r="N21" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O21" s="26"/>
       <c r="P21" s="27"/>
@@ -2458,7 +2446,7 @@
         <v>12</v>
       </c>
       <c r="R21" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S21" s="21">
         <f>Q19+Q20+Q21</f>
@@ -2471,7 +2459,7 @@
     </row>
     <row r="22" spans="2:20" ht="15.75" thickBot="1">
       <c r="B22" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>58</v>
@@ -2484,7 +2472,7 @@
     </row>
     <row r="23" spans="2:20" ht="15.75" thickBot="1">
       <c r="B23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="13" t="s">
@@ -2514,7 +2502,7 @@
       </c>
       <c r="M23" s="38"/>
       <c r="N23" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O23" s="23">
         <f>100*100/(19.9*33.3)</f>
@@ -2579,7 +2567,7 @@
     <row r="25" spans="2:20" ht="15.75" thickBot="1">
       <c r="M25" s="39"/>
       <c r="N25" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O25" s="26"/>
       <c r="P25" s="27"/>
@@ -2587,7 +2575,7 @@
         <v>7.5</v>
       </c>
       <c r="R25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S25" s="21">
         <f>Q23+Q24+Q25</f>
@@ -2603,7 +2591,7 @@
     </row>
     <row r="27" spans="2:20" ht="15.75" thickBot="1">
       <c r="B27" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I27" s="20" t="s">
         <v>58</v>
@@ -2612,7 +2600,7 @@
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1">
       <c r="B28" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="13" t="s">
@@ -2687,36 +2675,36 @@
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C33" s="5">
         <v>250</v>
@@ -2745,7 +2733,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C34" s="5">
         <v>250</v>
@@ -2774,7 +2762,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="45" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C35" s="5">
         <v>250</v>
@@ -2803,7 +2791,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C36" s="5">
         <v>250</v>
@@ -2832,7 +2820,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C37" s="5">
         <v>250</v>
@@ -2861,7 +2849,7 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="45" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C38" s="5">
         <v>250</v>
@@ -2890,7 +2878,7 @@
     </row>
     <row r="39" spans="2:9" ht="15.75" thickBot="1">
       <c r="B39" s="47" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C39" s="5">
         <v>250</v>
@@ -2919,7 +2907,7 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="52" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C40" s="5">
         <v>250</v>
@@ -2933,7 +2921,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="56" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C41" s="5">
         <v>250</v>
@@ -2962,7 +2950,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="56" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C42" s="5">
         <v>250</v>
@@ -2991,7 +2979,7 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="56" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C43" s="5">
         <v>250</v>
@@ -3020,7 +3008,7 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="56" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C44" s="5">
         <v>250</v>
@@ -3049,7 +3037,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1">
       <c r="B45" s="58" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C45" s="5">
         <v>250</v>
@@ -3078,15 +3066,15 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="52" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D46" s="50"/>
       <c r="E46" s="50"/>
       <c r="F46" s="50" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G46" s="50"/>
       <c r="H46" s="50"/>
@@ -3094,7 +3082,7 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="56" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C47" s="45">
         <v>250</v>
@@ -3123,7 +3111,7 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="56" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C48" s="45">
         <v>250</v>
@@ -3152,7 +3140,7 @@
     </row>
     <row r="49" spans="2:12">
       <c r="B49" s="56" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C49" s="45">
         <v>250</v>
@@ -3181,7 +3169,7 @@
     </row>
     <row r="50" spans="2:12">
       <c r="B50" s="56" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C50" s="45">
         <v>250</v>
@@ -3210,7 +3198,7 @@
     </row>
     <row r="51" spans="2:12" ht="15.75" thickBot="1">
       <c r="B51" s="58" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C51" s="45">
         <v>250</v>
@@ -3239,33 +3227,33 @@
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="52" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C52" s="45">
         <v>250</v>
       </c>
       <c r="D52" s="50" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G52" s="54" t="s">
         <v>52</v>
       </c>
       <c r="H52" s="53" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I52" s="55" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="2:12">
       <c r="B53" s="56" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C53" s="45">
         <v>250</v>
@@ -3301,7 +3289,7 @@
     </row>
     <row r="54" spans="2:12">
       <c r="B54" s="56" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C54" s="45">
         <v>250</v>
@@ -3337,7 +3325,7 @@
     </row>
     <row r="55" spans="2:12">
       <c r="B55" s="56" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C55" s="45">
         <v>250</v>
@@ -3373,7 +3361,7 @@
     </row>
     <row r="56" spans="2:12">
       <c r="B56" s="56" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C56" s="45">
         <v>250</v>
@@ -3409,7 +3397,7 @@
     </row>
     <row r="57" spans="2:12" ht="15.75" thickBot="1">
       <c r="B57" s="58" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C57" s="45">
         <v>250</v>
@@ -3445,7 +3433,7 @@
     </row>
     <row r="58" spans="2:12">
       <c r="B58" s="66" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C58" s="45">
         <v>250</v>
@@ -3457,7 +3445,7 @@
     </row>
     <row r="59" spans="2:12">
       <c r="B59" s="56" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C59" s="45">
         <v>250</v>
@@ -3484,7 +3472,7 @@
     </row>
     <row r="60" spans="2:12">
       <c r="B60" s="56" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C60" s="45">
         <v>250</v>
@@ -3513,7 +3501,7 @@
     </row>
     <row r="61" spans="2:12">
       <c r="B61" s="56" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C61" s="45">
         <v>250</v>
@@ -3542,7 +3530,7 @@
     </row>
     <row r="62" spans="2:12">
       <c r="B62" s="56" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C62" s="45">
         <v>250</v>
@@ -3569,7 +3557,7 @@
     </row>
     <row r="63" spans="2:12" ht="15.75" thickBot="1">
       <c r="B63" s="58" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C63" s="45">
         <v>250</v>
@@ -3598,33 +3586,33 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64" s="52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C64" s="45">
         <v>250</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E64" s="50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F64" s="53" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G64" s="54" t="s">
         <v>52</v>
       </c>
       <c r="H64" s="53" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
       <c r="B65" s="56" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C65" s="45">
         <v>250</v>
@@ -3640,20 +3628,20 @@
         <v>62.5</v>
       </c>
       <c r="G65" s="51">
-        <f t="shared" ref="G65:G69" si="25">ROUND(E65/D65,2)</f>
+        <f>ROUND(E65/D65,2)</f>
         <v>0.18</v>
       </c>
       <c r="H65" s="45">
         <v>141</v>
       </c>
       <c r="I65" s="57">
-        <f t="shared" ref="I65:I69" si="26">H65*F65</f>
+        <f t="shared" ref="I65:I69" si="25">H65*F65</f>
         <v>8812.5</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="2:11">
       <c r="B66" s="56" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C66" s="45">
         <v>250</v>
@@ -3669,20 +3657,20 @@
         <v>62.5</v>
       </c>
       <c r="G66" s="51">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="G65:G69" si="26">ROUND(E66/D66,2)</f>
         <v>0.17</v>
       </c>
       <c r="H66" s="45">
         <v>147</v>
       </c>
       <c r="I66" s="64">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>9187.5</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="2:11">
       <c r="B67" s="56" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C67" s="45">
         <v>250</v>
@@ -3698,14 +3686,14 @@
         <v>62.5</v>
       </c>
       <c r="G67" s="51">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.16</v>
       </c>
       <c r="H67" s="45">
         <v>161</v>
       </c>
       <c r="I67" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>10062.5</v>
       </c>
       <c r="K67">
@@ -3713,9 +3701,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="2:11">
       <c r="B68" s="56" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C68" s="45">
         <v>250</v>
@@ -3731,20 +3719,20 @@
         <v>50</v>
       </c>
       <c r="G68" s="51">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.17</v>
       </c>
       <c r="H68" s="45">
         <v>195</v>
       </c>
       <c r="I68" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>9750</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" thickBot="1">
+    <row r="69" spans="2:11" ht="15.75" thickBot="1">
       <c r="B69" s="58" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C69" s="45">
         <v>250</v>
@@ -3760,159 +3748,77 @@
         <v>50</v>
       </c>
       <c r="G69" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.16</v>
       </c>
       <c r="H69" s="59">
         <v>205</v>
       </c>
       <c r="I69" s="62">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>10250</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="34">
-        <v>170</v>
-      </c>
-      <c r="F70" t="s">
+    <row r="70" spans="2:11">
+      <c r="C70" s="34"/>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="D71" s="35"/>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="D72" s="35"/>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="D73" s="35"/>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="D74" s="35"/>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75" s="35"/>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71">
-        <v>5</v>
-      </c>
-      <c r="C71">
-        <f>1/B71*100</f>
-        <v>20</v>
-      </c>
-      <c r="D71" s="35">
-        <f t="shared" ref="D71:D74" si="27">$C$70/C71</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="B72">
-        <v>10</v>
-      </c>
-      <c r="C72">
-        <f t="shared" ref="C72:C75" si="28">1/B72*100</f>
-        <v>10</v>
-      </c>
-      <c r="D72" s="35">
-        <f t="shared" si="27"/>
-        <v>17</v>
-      </c>
-      <c r="F72" t="s">
-        <v>67</v>
-      </c>
-      <c r="G72">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="B73">
-        <v>12</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="28"/>
-        <v>8.3333333333333321</v>
-      </c>
-      <c r="D73" s="35">
-        <f t="shared" si="27"/>
-        <v>20.400000000000002</v>
-      </c>
-      <c r="F73" t="s">
-        <v>68</v>
-      </c>
-      <c r="G73">
+    <row r="78" spans="2:11">
+      <c r="B78">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="B74">
-        <v>15</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="28"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="D74" s="35">
-        <f t="shared" si="27"/>
-        <v>25.5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>69</v>
-      </c>
-      <c r="G74">
-        <f>G72/G73</f>
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="B75">
-        <v>20</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-      <c r="D75" s="35">
-        <f>$C$70/C75</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="C76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="D78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="E78">
+        <f>B78/D78</f>
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79">
+        <v>0.05</v>
+      </c>
+      <c r="C79" t="s">
+        <v>135</v>
+      </c>
       <c r="D79">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="E79">
-        <f>$C$70/(1/D79*100)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="D80">
-        <v>10</v>
-      </c>
-      <c r="E80">
-        <f>$C$70/(1/D80*100)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="4:5">
-      <c r="D81">
-        <v>15</v>
-      </c>
-      <c r="E81">
-        <f>$C$70/(1/D81*100)</f>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5">
-      <c r="D82">
-        <v>20</v>
-      </c>
-      <c r="E82">
-        <f>$C$70/(1/D82*100)</f>
-        <v>34</v>
+        <f>B79/D79</f>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
